--- a/files/housesales.xlsx
+++ b/files/housesales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tufan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tufan\Documents\GitHub\fall20-tufanbt\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB3E4E8-135A-42BD-90F1-7F9F617431CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5271EEA9-A31C-45CD-B614-8106A04E6A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22905" yWindow="2475" windowWidth="11670" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15195" yWindow="0" windowWidth="11670" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>2013-01</t>
   </si>
   <si>
@@ -321,10 +318,13 @@
     <t>2020-10</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Trend</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>sales</t>
   </si>
 </sst>
 </file>
@@ -703,25 +703,25 @@
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>27</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>29</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>34</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>35</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>32</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>30</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>25</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>29</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>30</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>33</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>36</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>31</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>35</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>36</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>35</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>38</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>36</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>33</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>35</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>46</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>40</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>40</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>41</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>40</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>41</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>45</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>49</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>43</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>37</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>35</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>35</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>41</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>39</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>39</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>41</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>38</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>42</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>45</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>39</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>38</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>34</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>29</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>32</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>39</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>37</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>41</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>37</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>36</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>41</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>46</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>38</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>34</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>37</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>31</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>36</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>37</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>38</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>39</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>38</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>35</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>38</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>39</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>36</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>30</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>33</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>32</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>33</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>33</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>35</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>30</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>28</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>29</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>29</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>35</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>31</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>31</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>29</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>31</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>38</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>44</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>43</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>43</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>42</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>46</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>48</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>46</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>36</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>35</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>54</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>100</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>74</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>66</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>58</v>
